--- a/lab3/Графики.xlsx
+++ b/lab3/Графики.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\CLionProjects\parallel-programming\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D15C5-CCDA-486D-AB62-F38C29C05842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B9220-9472-42FF-8700-A48CB9F95871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,13 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,64 +185,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1477531</c:v>
+                  <c:v>5307359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1483062</c:v>
+                  <c:v>5307911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1488531</c:v>
+                  <c:v>5308498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1494062</c:v>
+                  <c:v>5309089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1499953</c:v>
+                  <c:v>5309684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1507484</c:v>
+                  <c:v>5310279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1514015</c:v>
+                  <c:v>5310873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1519671</c:v>
+                  <c:v>5311483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1525203</c:v>
+                  <c:v>5312067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1530843</c:v>
+                  <c:v>5312651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1536453</c:v>
+                  <c:v>5313260</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1542265</c:v>
+                  <c:v>5313869</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1547906</c:v>
+                  <c:v>5314469</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1553484</c:v>
+                  <c:v>5315085</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1559031</c:v>
+                  <c:v>5315702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1564578</c:v>
+                  <c:v>5316286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1571937</c:v>
+                  <c:v>5316879</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1579609</c:v>
+                  <c:v>5317463</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1587437</c:v>
+                  <c:v>5318072</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1595296</c:v>
+                  <c:v>5318656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,64 +358,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1477531</c:v>
+                  <c:v>5307359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1483046</c:v>
+                  <c:v>5307911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1488531</c:v>
+                  <c:v>5308508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1493984</c:v>
+                  <c:v>5309097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1499812</c:v>
+                  <c:v>5309684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1507281</c:v>
+                  <c:v>5310263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1513875</c:v>
+                  <c:v>5310873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1519500</c:v>
+                  <c:v>5311459</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1525062</c:v>
+                  <c:v>5312043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1530718</c:v>
+                  <c:v>5312643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1536296</c:v>
+                  <c:v>5313228</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1542062</c:v>
+                  <c:v>5313844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1547734</c:v>
+                  <c:v>5314437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1553328</c:v>
+                  <c:v>5315045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1558921</c:v>
+                  <c:v>5315638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1564468</c:v>
+                  <c:v>5316230</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1571843</c:v>
+                  <c:v>5316806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1579468</c:v>
+                  <c:v>5317383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1587171</c:v>
+                  <c:v>5317975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1594984</c:v>
+                  <c:v>5318568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,64 +769,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5438234</c:v>
+                  <c:v>5143406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5441515</c:v>
+                  <c:v>5144100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5444765</c:v>
+                  <c:v>5144709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5448062</c:v>
+                  <c:v>5145294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5451437</c:v>
+                  <c:v>5145862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5454671</c:v>
+                  <c:v>5146432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5457953</c:v>
+                  <c:v>5147010</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5461187</c:v>
+                  <c:v>5147612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5464468</c:v>
+                  <c:v>5148206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5467734</c:v>
+                  <c:v>5148774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5470968</c:v>
+                  <c:v>5149343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5474265</c:v>
+                  <c:v>5149921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5477656</c:v>
+                  <c:v>5150514</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5480984</c:v>
+                  <c:v>5151091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5484265</c:v>
+                  <c:v>5151685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5487578</c:v>
+                  <c:v>5152271</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5490890</c:v>
+                  <c:v>5152864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5494203</c:v>
+                  <c:v>5153426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5497515</c:v>
+                  <c:v>5154035</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5500828</c:v>
+                  <c:v>5154630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,64 +942,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5438234</c:v>
+                  <c:v>5143406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5441578</c:v>
+                  <c:v>5144100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5444890</c:v>
+                  <c:v>5144693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5448265</c:v>
+                  <c:v>5145294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5451734</c:v>
+                  <c:v>5145870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5455078</c:v>
+                  <c:v>5146450</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5458390</c:v>
+                  <c:v>5147058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5461718</c:v>
+                  <c:v>5147677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5465046</c:v>
+                  <c:v>5148270</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5468421</c:v>
+                  <c:v>5148886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5471718</c:v>
+                  <c:v>5149519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5475015</c:v>
+                  <c:v>5150129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5478562</c:v>
+                  <c:v>5150738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5481937</c:v>
+                  <c:v>5151339</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5485328</c:v>
+                  <c:v>5151936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5488734</c:v>
+                  <c:v>5152528</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5492125</c:v>
+                  <c:v>5153130</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5495484</c:v>
+                  <c:v>5153723</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5498875</c:v>
+                  <c:v>5154332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5502234</c:v>
+                  <c:v>5154910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,64 +1353,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3918468</c:v>
+                  <c:v>5383383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3935484</c:v>
+                  <c:v>5385396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3947750</c:v>
+                  <c:v>5387593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3957906</c:v>
+                  <c:v>5388723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3969421</c:v>
+                  <c:v>5389838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3982218</c:v>
+                  <c:v>5391116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3995546</c:v>
+                  <c:v>5392300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4011578</c:v>
+                  <c:v>5393521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4025203</c:v>
+                  <c:v>5394665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4036843</c:v>
+                  <c:v>5395437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4048781</c:v>
+                  <c:v>5396536</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4064000</c:v>
+                  <c:v>5397877</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4078250</c:v>
+                  <c:v>5399244</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4092781</c:v>
+                  <c:v>5400668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4107703</c:v>
+                  <c:v>5401902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4121953</c:v>
+                  <c:v>5403212</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4134312</c:v>
+                  <c:v>5404445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4145171</c:v>
+                  <c:v>5405738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4159484</c:v>
+                  <c:v>5406901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4173484</c:v>
+                  <c:v>5408236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,64 +1526,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3918437</c:v>
+                  <c:v>5383343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3935343</c:v>
+                  <c:v>5385534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3947109</c:v>
+                  <c:v>5387649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3956734</c:v>
+                  <c:v>5389006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3968515</c:v>
+                  <c:v>5390137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3981296</c:v>
+                  <c:v>5391294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3993953</c:v>
+                  <c:v>5392696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4007546</c:v>
+                  <c:v>5393844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4021875</c:v>
+                  <c:v>5395373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4033421</c:v>
+                  <c:v>5396130</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4044984</c:v>
+                  <c:v>5397022</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4058343</c:v>
+                  <c:v>5398126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4072546</c:v>
+                  <c:v>5399503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4087312</c:v>
+                  <c:v>5400586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4102156</c:v>
+                  <c:v>5401870</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4116031</c:v>
+                  <c:v>5403074</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4128343</c:v>
+                  <c:v>5404405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4140187</c:v>
+                  <c:v>5405625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4153484</c:v>
+                  <c:v>5406861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4168125</c:v>
+                  <c:v>5407955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,64 +1937,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5687125</c:v>
+                  <c:v>5472078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5690359</c:v>
+                  <c:v>5473297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5693718</c:v>
+                  <c:v>5474561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5696984</c:v>
+                  <c:v>5475598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5700328</c:v>
+                  <c:v>5476263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5703562</c:v>
+                  <c:v>5476889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5706890</c:v>
+                  <c:v>5477546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5710046</c:v>
+                  <c:v>5478244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5713265</c:v>
+                  <c:v>5478902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5716531</c:v>
+                  <c:v>5479553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5719765</c:v>
+                  <c:v>5480195</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5723046</c:v>
+                  <c:v>5480828</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5726296</c:v>
+                  <c:v>5481461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5729593</c:v>
+                  <c:v>5482136</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5732812</c:v>
+                  <c:v>5482755</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5736140</c:v>
+                  <c:v>5483421</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5739343</c:v>
+                  <c:v>5484104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5742750</c:v>
+                  <c:v>5484706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5746078</c:v>
+                  <c:v>5485339</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5749328</c:v>
+                  <c:v>5485942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,64 +2110,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5690968</c:v>
+                  <c:v>5472318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5753828</c:v>
+                  <c:v>5481044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5757109</c:v>
+                  <c:v>5486825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5760328</c:v>
+                  <c:v>5487436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5763562</c:v>
+                  <c:v>5488084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5766781</c:v>
+                  <c:v>5488697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5770000</c:v>
+                  <c:v>5489314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5773234</c:v>
+                  <c:v>5489948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5776468</c:v>
+                  <c:v>5490613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5779734</c:v>
+                  <c:v>5491232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5783000</c:v>
+                  <c:v>5491883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5786250</c:v>
+                  <c:v>5492484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5789484</c:v>
+                  <c:v>5493159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5792703</c:v>
+                  <c:v>5493938</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5796015</c:v>
+                  <c:v>5494748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5799281</c:v>
+                  <c:v>5495486</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5802546</c:v>
+                  <c:v>5496193</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5805765</c:v>
+                  <c:v>5496917</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5809031</c:v>
+                  <c:v>5497579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5812234</c:v>
+                  <c:v>5498192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,64 +2490,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4382843</c:v>
+                  <c:v>5868921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4395328</c:v>
+                  <c:v>5870507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4409609</c:v>
+                  <c:v>5872208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4422312</c:v>
+                  <c:v>5873539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4434062</c:v>
+                  <c:v>5874732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4446828</c:v>
+                  <c:v>5875985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4459421</c:v>
+                  <c:v>5877259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4471812</c:v>
+                  <c:v>5878568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4485109</c:v>
+                  <c:v>5879553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4497468</c:v>
+                  <c:v>5880594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4509890</c:v>
+                  <c:v>5881700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4522875</c:v>
+                  <c:v>5882687</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4534671</c:v>
+                  <c:v>5883993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4547046</c:v>
+                  <c:v>5885039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4558656</c:v>
+                  <c:v>5885740</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4569578</c:v>
+                  <c:v>5886448</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4580203</c:v>
+                  <c:v>5887302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4591250</c:v>
+                  <c:v>5888589</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4605046</c:v>
+                  <c:v>5890176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4619890</c:v>
+                  <c:v>5892045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,64 +2663,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4382890</c:v>
+                  <c:v>5868921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4396171</c:v>
+                  <c:v>5870795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4410109</c:v>
+                  <c:v>5872994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4422328</c:v>
+                  <c:v>5874420</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4435250</c:v>
+                  <c:v>5875608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4448171</c:v>
+                  <c:v>5876762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4460906</c:v>
+                  <c:v>5877861</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4473609</c:v>
+                  <c:v>5878984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4486578</c:v>
+                  <c:v>5880442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4499171</c:v>
+                  <c:v>5881845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4510562</c:v>
+                  <c:v>5882775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4522671</c:v>
+                  <c:v>5883656</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4535515</c:v>
+                  <c:v>5885025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4547500</c:v>
+                  <c:v>5885877</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4559718</c:v>
+                  <c:v>5886738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4569953</c:v>
+                  <c:v>5888060</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4580031</c:v>
+                  <c:v>5889423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4590578</c:v>
+                  <c:v>5891412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4605250</c:v>
+                  <c:v>5893299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4619203</c:v>
+                  <c:v>5894487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,64 +3074,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17729640</c:v>
+                  <c:v>6147937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17737046</c:v>
+                  <c:v>6149248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17743625</c:v>
+                  <c:v>6150400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17749656</c:v>
+                  <c:v>6151571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17755921</c:v>
+                  <c:v>6152550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17761875</c:v>
+                  <c:v>6153214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17769750</c:v>
+                  <c:v>6153864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17780109</c:v>
+                  <c:v>6154480</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17787562</c:v>
+                  <c:v>6155113</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17793859</c:v>
+                  <c:v>6155722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17802875</c:v>
+                  <c:v>6156387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17813375</c:v>
+                  <c:v>6156964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17823234</c:v>
+                  <c:v>6157582</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17832265</c:v>
+                  <c:v>6158175</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17841328</c:v>
+                  <c:v>6158799</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17850406</c:v>
+                  <c:v>6159504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17859484</c:v>
+                  <c:v>6160104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17868171</c:v>
+                  <c:v>6160769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17877046</c:v>
+                  <c:v>6161450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17886390</c:v>
+                  <c:v>6162075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,64 +3247,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17729718</c:v>
+                  <c:v>6147937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17770078</c:v>
+                  <c:v>6153728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17781406</c:v>
+                  <c:v>6162763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17802750</c:v>
+                  <c:v>6163390</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17813656</c:v>
+                  <c:v>6164023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17829703</c:v>
+                  <c:v>6164665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17849750</c:v>
+                  <c:v>6165281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17873859</c:v>
+                  <c:v>6165883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17893625</c:v>
+                  <c:v>6166524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17902125</c:v>
+                  <c:v>6167166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17909203</c:v>
+                  <c:v>6167751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17915578</c:v>
+                  <c:v>6168367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17921796</c:v>
+                  <c:v>6168976</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17927015</c:v>
+                  <c:v>6169640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17936312</c:v>
+                  <c:v>6170273</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17946921</c:v>
+                  <c:v>6170977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17957750</c:v>
+                  <c:v>6171772</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17968796</c:v>
+                  <c:v>6172517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17979734</c:v>
+                  <c:v>6173233</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17986343</c:v>
+                  <c:v>6173986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7405,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D25"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7415,34 +7414,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7451,13 +7450,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1477531</v>
+        <v>5307359</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1477531</v>
+        <v>5307359</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -7465,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1483062</v>
+        <v>5307911</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1483046</v>
+        <v>5307911</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -7479,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1488531</v>
+        <v>5308498</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1488531</v>
+        <v>5308508</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -7493,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1494062</v>
+        <v>5309089</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1493984</v>
+        <v>5309097</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -7507,13 +7506,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1499953</v>
+        <v>5309684</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1499812</v>
+        <v>5309684</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -7521,13 +7520,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1507484</v>
+        <v>5310279</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>1507281</v>
+        <v>5310263</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -7535,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1514015</v>
+        <v>5310873</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1513875</v>
+        <v>5310873</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -7549,13 +7548,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1519671</v>
+        <v>5311483</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1519500</v>
+        <v>5311459</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -7563,13 +7562,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1525203</v>
+        <v>5312067</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1525062</v>
+        <v>5312043</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -7577,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1530843</v>
+        <v>5312651</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1530718</v>
+        <v>5312643</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7591,13 +7590,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1536453</v>
+        <v>5313260</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1536296</v>
+        <v>5313228</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -7605,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1542265</v>
+        <v>5313869</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1542062</v>
+        <v>5313844</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -7619,13 +7618,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1547906</v>
+        <v>5314469</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1547734</v>
+        <v>5314437</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -7633,13 +7632,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1553484</v>
+        <v>5315085</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1553328</v>
+        <v>5315045</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -7647,13 +7646,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1559031</v>
+        <v>5315702</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1558921</v>
+        <v>5315638</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -7661,13 +7660,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1564578</v>
+        <v>5316286</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>1564468</v>
+        <v>5316230</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -7675,13 +7674,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1571937</v>
+        <v>5316879</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1571843</v>
+        <v>5316806</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -7689,13 +7688,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1579609</v>
+        <v>5317463</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1579468</v>
+        <v>5317383</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -7703,13 +7702,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1587437</v>
+        <v>5318072</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1587171</v>
+        <v>5317975</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -7717,317 +7716,317 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1595296</v>
+        <v>5318656</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1594984</v>
+        <v>5318568</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>5438234</v>
-      </c>
-      <c r="C26" s="3">
+        <v>5143406</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5438234</v>
+        <v>5143406</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>5441515</v>
+        <v>5144100</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>5441578</v>
+        <v>5144100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>5444765</v>
+        <v>5144709</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>5444890</v>
+        <v>5144693</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>5448062</v>
+        <v>5145294</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>5448265</v>
+        <v>5145294</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>5451437</v>
+        <v>5145862</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5451734</v>
+        <v>5145870</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>5454671</v>
+        <v>5146432</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>5455078</v>
+        <v>5146450</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>5457953</v>
+        <v>5147010</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>5458390</v>
+        <v>5147058</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>5461187</v>
+        <v>5147612</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>5461718</v>
+        <v>5147677</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>5464468</v>
+        <v>5148206</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5465046</v>
+        <v>5148270</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>5467734</v>
+        <v>5148774</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>5468421</v>
+        <v>5148886</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>5470968</v>
+        <v>5149343</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>5471718</v>
+        <v>5149519</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>1</v>
       </c>
       <c r="B37">
-        <v>5474265</v>
+        <v>5149921</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>5475015</v>
+        <v>5150129</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>5477656</v>
+        <v>5150514</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>5478562</v>
+        <v>5150738</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>5480984</v>
+        <v>5151091</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>5481937</v>
+        <v>5151339</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>1</v>
       </c>
       <c r="B40">
-        <v>5484265</v>
+        <v>5151685</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5485328</v>
+        <v>5151936</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
-        <v>5487578</v>
+        <v>5152271</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5488734</v>
+        <v>5152528</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
-        <v>5490890</v>
+        <v>5152864</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5492125</v>
+        <v>5153130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>5494203</v>
+        <v>5153426</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5495484</v>
+        <v>5153723</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <v>5497515</v>
+        <v>5154035</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>5498875</v>
+        <v>5154332</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>5500828</v>
+        <v>5154630</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>5502234</v>
+        <v>5154910</v>
       </c>
     </row>
   </sheetData>
@@ -8048,41 +8047,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB318573-4D82-4FF9-8610-2597F17DE506}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D25"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8091,13 +8090,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3918468</v>
+        <v>5383383</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3918437</v>
+        <v>5383343</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -8105,13 +8104,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3935484</v>
+        <v>5385396</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3935343</v>
+        <v>5385534</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -8119,13 +8118,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3947750</v>
+        <v>5387593</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3947109</v>
+        <v>5387649</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -8133,13 +8132,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3957906</v>
+        <v>5388723</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3956734</v>
+        <v>5389006</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -8147,13 +8146,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3969421</v>
+        <v>5389838</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3968515</v>
+        <v>5390137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -8161,13 +8160,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>3982218</v>
+        <v>5391116</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3981296</v>
+        <v>5391294</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -8175,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>3995546</v>
+        <v>5392300</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3993953</v>
+        <v>5392696</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -8189,13 +8188,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>4011578</v>
+        <v>5393521</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>4007546</v>
+        <v>5393844</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -8203,13 +8202,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4025203</v>
+        <v>5394665</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>4021875</v>
+        <v>5395373</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -8217,13 +8216,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>4036843</v>
+        <v>5395437</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>4033421</v>
+        <v>5396130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -8231,13 +8230,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4048781</v>
+        <v>5396536</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>4044984</v>
+        <v>5397022</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -8245,13 +8244,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>4064000</v>
+        <v>5397877</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>4058343</v>
+        <v>5398126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -8259,13 +8258,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>4078250</v>
+        <v>5399244</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4072546</v>
+        <v>5399503</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -8273,13 +8272,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>4092781</v>
+        <v>5400668</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4087312</v>
+        <v>5400586</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8287,13 +8286,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>4107703</v>
+        <v>5401902</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4102156</v>
+        <v>5401870</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8301,13 +8300,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>4121953</v>
+        <v>5403212</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4116031</v>
+        <v>5403074</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8315,13 +8314,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>4134312</v>
+        <v>5404445</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>4128343</v>
+        <v>5404405</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8329,13 +8328,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>4145171</v>
+        <v>5405738</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>4140187</v>
+        <v>5405625</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8343,13 +8342,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>4159484</v>
+        <v>5406901</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>4153484</v>
+        <v>5406861</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8357,317 +8356,317 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>4173484</v>
+        <v>5408236</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>4168125</v>
+        <v>5407955</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>5687125</v>
-      </c>
-      <c r="C26" s="3">
+        <v>5472078</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5690968</v>
+        <v>5472318</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>5690359</v>
-      </c>
-      <c r="C27" s="3">
+        <v>5473297</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>5753828</v>
+        <v>5481044</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>5693718</v>
-      </c>
-      <c r="C28" s="3">
+        <v>5474561</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>5757109</v>
+        <v>5486825</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>5696984</v>
-      </c>
-      <c r="C29" s="3">
+        <v>5475598</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>5760328</v>
+        <v>5487436</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>5700328</v>
-      </c>
-      <c r="C30" s="3">
+        <v>5476263</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5763562</v>
+        <v>5488084</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>5703562</v>
-      </c>
-      <c r="C31" s="3">
+        <v>5476889</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>5766781</v>
+        <v>5488697</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>5706890</v>
-      </c>
-      <c r="C32" s="3">
+        <v>5477546</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>5770000</v>
+        <v>5489314</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>5710046</v>
-      </c>
-      <c r="C33" s="3">
+        <v>5478244</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>5773234</v>
+        <v>5489948</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>5713265</v>
-      </c>
-      <c r="C34" s="3">
+        <v>5478902</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5776468</v>
+        <v>5490613</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>5716531</v>
-      </c>
-      <c r="C35" s="3">
+        <v>5479553</v>
+      </c>
+      <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>5779734</v>
+        <v>5491232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>5719765</v>
-      </c>
-      <c r="C36" s="3">
+        <v>5480195</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>5783000</v>
+        <v>5491883</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>1</v>
       </c>
       <c r="B37">
-        <v>5723046</v>
-      </c>
-      <c r="C37" s="3">
+        <v>5480828</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>5786250</v>
+        <v>5492484</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>5726296</v>
-      </c>
-      <c r="C38" s="3">
+        <v>5481461</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>5789484</v>
+        <v>5493159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>5729593</v>
-      </c>
-      <c r="C39" s="3">
+        <v>5482136</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>5792703</v>
+        <v>5493938</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>1</v>
       </c>
       <c r="B40">
-        <v>5732812</v>
-      </c>
-      <c r="C40" s="3">
+        <v>5482755</v>
+      </c>
+      <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5796015</v>
+        <v>5494748</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
-        <v>5736140</v>
-      </c>
-      <c r="C41" s="3">
+        <v>5483421</v>
+      </c>
+      <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5799281</v>
+        <v>5495486</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
-        <v>5739343</v>
-      </c>
-      <c r="C42" s="3">
+        <v>5484104</v>
+      </c>
+      <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5802546</v>
+        <v>5496193</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>5742750</v>
-      </c>
-      <c r="C43" s="3">
+        <v>5484706</v>
+      </c>
+      <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5805765</v>
+        <v>5496917</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <v>5746078</v>
-      </c>
-      <c r="C44" s="3">
+        <v>5485339</v>
+      </c>
+      <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>5809031</v>
+        <v>5497579</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>5749328</v>
-      </c>
-      <c r="C45" s="3">
+        <v>5485942</v>
+      </c>
+      <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>5812234</v>
+        <v>5498192</v>
       </c>
     </row>
   </sheetData>
@@ -8687,41 +8686,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE69A64-2313-48FE-94DC-9AE97547E4CA}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8730,13 +8729,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4382843</v>
+        <v>5868921</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4382890</v>
+        <v>5868921</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -8744,13 +8743,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4395328</v>
+        <v>5870507</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4396171</v>
+        <v>5870795</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -8758,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4409609</v>
+        <v>5872208</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4410109</v>
+        <v>5872994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -8772,13 +8771,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4422312</v>
+        <v>5873539</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4422328</v>
+        <v>5874420</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -8786,13 +8785,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>4434062</v>
+        <v>5874732</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4435250</v>
+        <v>5875608</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -8800,13 +8799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4446828</v>
+        <v>5875985</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4448171</v>
+        <v>5876762</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -8814,13 +8813,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>4459421</v>
+        <v>5877259</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>4460906</v>
+        <v>5877861</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -8828,13 +8827,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>4471812</v>
+        <v>5878568</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>4473609</v>
+        <v>5878984</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -8842,13 +8841,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4485109</v>
+        <v>5879553</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>4486578</v>
+        <v>5880442</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -8856,13 +8855,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>4497468</v>
+        <v>5880594</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>4499171</v>
+        <v>5881845</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -8870,13 +8869,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4509890</v>
+        <v>5881700</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>4510562</v>
+        <v>5882775</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -8884,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>4522875</v>
+        <v>5882687</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>4522671</v>
+        <v>5883656</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -8898,13 +8897,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>4534671</v>
+        <v>5883993</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4535515</v>
+        <v>5885025</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -8912,13 +8911,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>4547046</v>
+        <v>5885039</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4547500</v>
+        <v>5885877</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8926,13 +8925,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>4558656</v>
+        <v>5885740</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4559718</v>
+        <v>5886738</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8940,13 +8939,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>4569578</v>
+        <v>5886448</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4569953</v>
+        <v>5888060</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8954,13 +8953,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>4580203</v>
+        <v>5887302</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>4580031</v>
+        <v>5889423</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8968,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>4591250</v>
+        <v>5888589</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>4590578</v>
+        <v>5891412</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8982,13 +8981,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>4605046</v>
+        <v>5890176</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>4605250</v>
+        <v>5893299</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8996,317 +8995,317 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>4619890</v>
+        <v>5892045</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>4619203</v>
+        <v>5894487</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>17729640</v>
-      </c>
-      <c r="C26" s="3">
+        <v>6147937</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>17729718</v>
+        <v>6147937</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>17737046</v>
-      </c>
-      <c r="C27" s="3">
+        <v>6149248</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>17770078</v>
+        <v>6153728</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>17743625</v>
-      </c>
-      <c r="C28" s="3">
+        <v>6150400</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>17781406</v>
+        <v>6162763</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>17749656</v>
-      </c>
-      <c r="C29" s="3">
+        <v>6151571</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>17802750</v>
+        <v>6163390</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>17755921</v>
-      </c>
-      <c r="C30" s="3">
+        <v>6152550</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>17813656</v>
+        <v>6164023</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>17761875</v>
-      </c>
-      <c r="C31" s="3">
+        <v>6153214</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>17829703</v>
+        <v>6164665</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>17769750</v>
-      </c>
-      <c r="C32" s="3">
+        <v>6153864</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>17849750</v>
+        <v>6165281</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>17780109</v>
-      </c>
-      <c r="C33" s="3">
+        <v>6154480</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>17873859</v>
+        <v>6165883</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>17787562</v>
-      </c>
-      <c r="C34" s="3">
+        <v>6155113</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>17893625</v>
+        <v>6166524</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>17793859</v>
-      </c>
-      <c r="C35" s="3">
+        <v>6155722</v>
+      </c>
+      <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>17902125</v>
+        <v>6167166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>17802875</v>
-      </c>
-      <c r="C36" s="3">
+        <v>6156387</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>17909203</v>
+        <v>6167751</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>1</v>
       </c>
       <c r="B37">
-        <v>17813375</v>
-      </c>
-      <c r="C37" s="3">
+        <v>6156964</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>17915578</v>
+        <v>6168367</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>17823234</v>
-      </c>
-      <c r="C38" s="3">
+        <v>6157582</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>17921796</v>
+        <v>6168976</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>17832265</v>
-      </c>
-      <c r="C39" s="3">
+        <v>6158175</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>17927015</v>
+        <v>6169640</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>1</v>
       </c>
       <c r="B40">
-        <v>17841328</v>
-      </c>
-      <c r="C40" s="3">
+        <v>6158799</v>
+      </c>
+      <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>17936312</v>
+        <v>6170273</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
-        <v>17850406</v>
-      </c>
-      <c r="C41" s="3">
+        <v>6159504</v>
+      </c>
+      <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>17946921</v>
+        <v>6170977</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
-        <v>17859484</v>
-      </c>
-      <c r="C42" s="3">
+        <v>6160104</v>
+      </c>
+      <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>17957750</v>
+        <v>6171772</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>17868171</v>
-      </c>
-      <c r="C43" s="3">
+        <v>6160769</v>
+      </c>
+      <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>17968796</v>
+        <v>6172517</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <v>17877046</v>
-      </c>
-      <c r="C44" s="3">
+        <v>6161450</v>
+      </c>
+      <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>17979734</v>
+        <v>6173233</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>17886390</v>
-      </c>
-      <c r="C45" s="3">
+        <v>6162075</v>
+      </c>
+      <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>17986343</v>
+        <v>6173986</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/Графики.xlsx
+++ b/lab3/Графики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\CLionProjects\parallel-programming\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B9220-9472-42FF-8700-A48CB9F95871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762BF75-7A51-41DD-A029-A319A0513146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,64 +185,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5307359</c:v>
+                  <c:v>3191515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5307911</c:v>
+                  <c:v>3192124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5308498</c:v>
+                  <c:v>3192740</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5309089</c:v>
+                  <c:v>3193373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5309684</c:v>
+                  <c:v>3193982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5310279</c:v>
+                  <c:v>3194591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5310873</c:v>
+                  <c:v>3195200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5311483</c:v>
+                  <c:v>3195810</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5312067</c:v>
+                  <c:v>3196428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5312651</c:v>
+                  <c:v>3197030</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5313260</c:v>
+                  <c:v>3197615</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5313869</c:v>
+                  <c:v>3198208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5314469</c:v>
+                  <c:v>3198792</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5315085</c:v>
+                  <c:v>3199394</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5315702</c:v>
+                  <c:v>3199987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5316286</c:v>
+                  <c:v>3200604</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5316879</c:v>
+                  <c:v>3201198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5317463</c:v>
+                  <c:v>3201807</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5318072</c:v>
+                  <c:v>3202408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5318656</c:v>
+                  <c:v>3203009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,64 +358,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5307359</c:v>
+                  <c:v>3191515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5307911</c:v>
+                  <c:v>3192124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5308508</c:v>
+                  <c:v>3192732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5309097</c:v>
+                  <c:v>3193365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5309684</c:v>
+                  <c:v>3193982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5310263</c:v>
+                  <c:v>3194583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5310873</c:v>
+                  <c:v>3195192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5311459</c:v>
+                  <c:v>3195794</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5312043</c:v>
+                  <c:v>3196420</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5312643</c:v>
+                  <c:v>3197014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5313228</c:v>
+                  <c:v>3197607</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5313844</c:v>
+                  <c:v>3198200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5314437</c:v>
+                  <c:v>3198792</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5315045</c:v>
+                  <c:v>3199394</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5315638</c:v>
+                  <c:v>3199987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5316230</c:v>
+                  <c:v>3200588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5316806</c:v>
+                  <c:v>3201190</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5317383</c:v>
+                  <c:v>3201807</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5317975</c:v>
+                  <c:v>3202417</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5318568</c:v>
+                  <c:v>3203009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,64 +769,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5143406</c:v>
+                  <c:v>3237062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5144100</c:v>
+                  <c:v>3237874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5144709</c:v>
+                  <c:v>3238468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5145294</c:v>
+                  <c:v>3239078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5145862</c:v>
+                  <c:v>3239657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5146432</c:v>
+                  <c:v>3240259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5147010</c:v>
+                  <c:v>3240853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5147612</c:v>
+                  <c:v>3241457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5148206</c:v>
+                  <c:v>3242064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5148774</c:v>
+                  <c:v>3242676</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5149343</c:v>
+                  <c:v>3243280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5149921</c:v>
+                  <c:v>3243869</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5150514</c:v>
+                  <c:v>3244457</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5151091</c:v>
+                  <c:v>3245047</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5151685</c:v>
+                  <c:v>3245643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5152271</c:v>
+                  <c:v>3246238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5152864</c:v>
+                  <c:v>3246843</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5153426</c:v>
+                  <c:v>3247462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5154035</c:v>
+                  <c:v>3248082</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5154630</c:v>
+                  <c:v>3248678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,64 +942,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5143406</c:v>
+                  <c:v>3237085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5144100</c:v>
+                  <c:v>3237714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5144693</c:v>
+                  <c:v>3238364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5145294</c:v>
+                  <c:v>3238973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5145870</c:v>
+                  <c:v>3239592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5146450</c:v>
+                  <c:v>3240187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5147058</c:v>
+                  <c:v>3240779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5147677</c:v>
+                  <c:v>3241368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5148270</c:v>
+                  <c:v>3241983</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5148886</c:v>
+                  <c:v>3242587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5149519</c:v>
+                  <c:v>3243200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5150129</c:v>
+                  <c:v>3243804</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5150738</c:v>
+                  <c:v>3244409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5151339</c:v>
+                  <c:v>3245023</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5151936</c:v>
+                  <c:v>3245602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5152528</c:v>
+                  <c:v>3246206</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5153130</c:v>
+                  <c:v>3246810</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5153723</c:v>
+                  <c:v>3247414</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5154332</c:v>
+                  <c:v>3248026</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5154910</c:v>
+                  <c:v>3248637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,64 +1353,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5383383</c:v>
+                  <c:v>3417859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5385396</c:v>
+                  <c:v>3419248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5387593</c:v>
+                  <c:v>3420488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5388723</c:v>
+                  <c:v>3421783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5389838</c:v>
+                  <c:v>3423130</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5391116</c:v>
+                  <c:v>3424462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5392300</c:v>
+                  <c:v>3425535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5393521</c:v>
+                  <c:v>3426734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5394665</c:v>
+                  <c:v>3428009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5395437</c:v>
+                  <c:v>3429154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5396536</c:v>
+                  <c:v>3430372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5397877</c:v>
+                  <c:v>3431760</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5399244</c:v>
+                  <c:v>3433206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5400668</c:v>
+                  <c:v>3434333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5401902</c:v>
+                  <c:v>3435485</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5403212</c:v>
+                  <c:v>3436645</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5404445</c:v>
+                  <c:v>3438038</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5405738</c:v>
+                  <c:v>3439667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5406901</c:v>
+                  <c:v>3441251</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5408236</c:v>
+                  <c:v>3442841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,64 +1526,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5383343</c:v>
+                  <c:v>3418098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5385534</c:v>
+                  <c:v>3419313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5387649</c:v>
+                  <c:v>3420578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5389006</c:v>
+                  <c:v>3421880</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5390137</c:v>
+                  <c:v>3423057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5391294</c:v>
+                  <c:v>3424307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5392696</c:v>
+                  <c:v>3425737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5393844</c:v>
+                  <c:v>3427052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5395373</c:v>
+                  <c:v>3428504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5396130</c:v>
+                  <c:v>3429762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5397022</c:v>
+                  <c:v>3431005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5398126</c:v>
+                  <c:v>3432148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5399503</c:v>
+                  <c:v>3433387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5400586</c:v>
+                  <c:v>3434780</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5401870</c:v>
+                  <c:v>3436044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5403074</c:v>
+                  <c:v>3437632</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5404405</c:v>
+                  <c:v>3439119</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5405625</c:v>
+                  <c:v>3440742</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5406861</c:v>
+                  <c:v>3442414</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5407955</c:v>
+                  <c:v>3443454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,64 +1937,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5472078</c:v>
+                  <c:v>3519171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5473297</c:v>
+                  <c:v>3519912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5474561</c:v>
+                  <c:v>3520647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5475598</c:v>
+                  <c:v>3521334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5476263</c:v>
+                  <c:v>3521883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5476889</c:v>
+                  <c:v>3522350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5477546</c:v>
+                  <c:v>3522749</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5478244</c:v>
+                  <c:v>3523207</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5478902</c:v>
+                  <c:v>3523661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5479553</c:v>
+                  <c:v>3524339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5480195</c:v>
+                  <c:v>3525530</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5480828</c:v>
+                  <c:v>3526806</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5481461</c:v>
+                  <c:v>3527941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5482136</c:v>
+                  <c:v>3529238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5482755</c:v>
+                  <c:v>3529929</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5483421</c:v>
+                  <c:v>3530569</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5484104</c:v>
+                  <c:v>3531209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5484706</c:v>
+                  <c:v>3531858</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5485339</c:v>
+                  <c:v>3532541</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5485942</c:v>
+                  <c:v>3533165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,64 +2110,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5472318</c:v>
+                  <c:v>3523702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5481044</c:v>
+                  <c:v>3533067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5486825</c:v>
+                  <c:v>3533781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5487436</c:v>
+                  <c:v>3534398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5488084</c:v>
+                  <c:v>3535005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5488697</c:v>
+                  <c:v>3535632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5489314</c:v>
+                  <c:v>3536339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5489948</c:v>
+                  <c:v>3537091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5490613</c:v>
+                  <c:v>3537891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5491232</c:v>
+                  <c:v>3538673</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5491883</c:v>
+                  <c:v>3539465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5492484</c:v>
+                  <c:v>3540193</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5493159</c:v>
+                  <c:v>3540963</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5493938</c:v>
+                  <c:v>3541742</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5494748</c:v>
+                  <c:v>3542503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5495486</c:v>
+                  <c:v>3543248</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5496193</c:v>
+                  <c:v>3543993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5496917</c:v>
+                  <c:v>3544762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5497579</c:v>
+                  <c:v>3545515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5498192</c:v>
+                  <c:v>3546293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,64 +2490,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5868921</c:v>
+                  <c:v>3610429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5870507</c:v>
+                  <c:v>3611887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5872208</c:v>
+                  <c:v>3613037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5873539</c:v>
+                  <c:v>3614320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5874732</c:v>
+                  <c:v>3615492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5875985</c:v>
+                  <c:v>3616852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5877259</c:v>
+                  <c:v>3618161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5878568</c:v>
+                  <c:v>3619495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5879553</c:v>
+                  <c:v>3620687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5880594</c:v>
+                  <c:v>3621957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5881700</c:v>
+                  <c:v>3623226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5882687</c:v>
+                  <c:v>3624477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5883993</c:v>
+                  <c:v>3625593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5885039</c:v>
+                  <c:v>3626586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5885740</c:v>
+                  <c:v>3627985</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5886448</c:v>
+                  <c:v>3629045</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5887302</c:v>
+                  <c:v>3630086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5888589</c:v>
+                  <c:v>3631408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5890176</c:v>
+                  <c:v>3632626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5892045</c:v>
+                  <c:v>3633773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,64 +2663,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5868921</c:v>
+                  <c:v>3610062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5870795</c:v>
+                  <c:v>3611659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5872994</c:v>
+                  <c:v>3613005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5874420</c:v>
+                  <c:v>3614223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5875608</c:v>
+                  <c:v>3615484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5876762</c:v>
+                  <c:v>3616739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5877861</c:v>
+                  <c:v>3618039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5878984</c:v>
+                  <c:v>3619301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5880442</c:v>
+                  <c:v>3620563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5881845</c:v>
+                  <c:v>3621843</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5882775</c:v>
+                  <c:v>3622878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5883656</c:v>
+                  <c:v>3624129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5885025</c:v>
+                  <c:v>3625398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5885877</c:v>
+                  <c:v>3626934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5886738</c:v>
+                  <c:v>3627929</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5888060</c:v>
+                  <c:v>3629320</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5889423</c:v>
+                  <c:v>3630511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5891412</c:v>
+                  <c:v>3631753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5893299</c:v>
+                  <c:v>3632995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5894487</c:v>
+                  <c:v>3634005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,64 +3074,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6147937</c:v>
+                  <c:v>3696703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6149248</c:v>
+                  <c:v>3697898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6150400</c:v>
+                  <c:v>3698658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6151571</c:v>
+                  <c:v>3699327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6152550</c:v>
+                  <c:v>3700015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6153214</c:v>
+                  <c:v>3700643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6153864</c:v>
+                  <c:v>3701282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6154480</c:v>
+                  <c:v>3701921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6155113</c:v>
+                  <c:v>3702567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6155722</c:v>
+                  <c:v>3703195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6156387</c:v>
+                  <c:v>3703807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6156964</c:v>
+                  <c:v>3704579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6157582</c:v>
+                  <c:v>3705348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6158175</c:v>
+                  <c:v>3706269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6158799</c:v>
+                  <c:v>3706981</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6159504</c:v>
+                  <c:v>3707705</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6160104</c:v>
+                  <c:v>3708332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6160769</c:v>
+                  <c:v>3709011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6161450</c:v>
+                  <c:v>3709662</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6162075</c:v>
+                  <c:v>3710271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,64 +3247,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6147937</c:v>
+                  <c:v>3701459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6153728</c:v>
+                  <c:v>3707522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6162763</c:v>
+                  <c:v>3710815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6163390</c:v>
+                  <c:v>3711855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6164023</c:v>
+                  <c:v>3713007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6164665</c:v>
+                  <c:v>3714137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6165281</c:v>
+                  <c:v>3715227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6165883</c:v>
+                  <c:v>3716351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6166524</c:v>
+                  <c:v>3717454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6167166</c:v>
+                  <c:v>3718115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6167751</c:v>
+                  <c:v>3718754</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6168367</c:v>
+                  <c:v>3719359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6168976</c:v>
+                  <c:v>3719976</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6169640</c:v>
+                  <c:v>3720592</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6170273</c:v>
+                  <c:v>3721198</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6170977</c:v>
+                  <c:v>3721820</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6171772</c:v>
+                  <c:v>3722463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6172517</c:v>
+                  <c:v>3723073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6173233</c:v>
+                  <c:v>3723690</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6173986</c:v>
+                  <c:v>3724305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7404,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7450,13 +7450,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5307359</v>
+        <v>3191515</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5307359</v>
+        <v>3191515</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -7464,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5307911</v>
+        <v>3192124</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5307911</v>
+        <v>3192124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -7478,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5308498</v>
+        <v>3192740</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5308508</v>
+        <v>3192732</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -7492,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5309089</v>
+        <v>3193373</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>5309097</v>
+        <v>3193365</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -7506,13 +7506,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5309684</v>
+        <v>3193982</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5309684</v>
+        <v>3193982</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -7520,13 +7520,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5310279</v>
+        <v>3194591</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5310263</v>
+        <v>3194583</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -7534,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>5310873</v>
+        <v>3195200</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>5310873</v>
+        <v>3195192</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -7548,13 +7548,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>5311483</v>
+        <v>3195810</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>5311459</v>
+        <v>3195794</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -7562,13 +7562,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>5312067</v>
+        <v>3196428</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5312043</v>
+        <v>3196420</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -7576,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>5312651</v>
+        <v>3197030</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5312643</v>
+        <v>3197014</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7590,13 +7590,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>5313260</v>
+        <v>3197615</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>5313228</v>
+        <v>3197607</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -7604,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>5313869</v>
+        <v>3198208</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>5313844</v>
+        <v>3198200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -7618,13 +7618,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>5314469</v>
+        <v>3198792</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5314437</v>
+        <v>3198792</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -7632,13 +7632,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>5315085</v>
+        <v>3199394</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>5315045</v>
+        <v>3199394</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -7646,13 +7646,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>5315702</v>
+        <v>3199987</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5315638</v>
+        <v>3199987</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -7660,13 +7660,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5316286</v>
+        <v>3200604</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5316230</v>
+        <v>3200588</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -7674,13 +7674,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>5316879</v>
+        <v>3201198</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5316806</v>
+        <v>3201190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -7688,13 +7688,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>5317463</v>
+        <v>3201807</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>5317383</v>
+        <v>3201807</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -7702,13 +7702,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>5318072</v>
+        <v>3202408</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>5317975</v>
+        <v>3202417</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -7716,13 +7716,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>5318656</v>
+        <v>3203009</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>5318568</v>
+        <v>3203009</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -7754,13 +7754,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>5143406</v>
+        <v>3237062</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5143406</v>
+        <v>3237085</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -7768,13 +7768,13 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>5144100</v>
+        <v>3237874</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>5144100</v>
+        <v>3237714</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -7782,13 +7782,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>5144709</v>
+        <v>3238468</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>5144693</v>
+        <v>3238364</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -7796,13 +7796,13 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>5145294</v>
+        <v>3239078</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>5145294</v>
+        <v>3238973</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -7810,13 +7810,13 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>5145862</v>
+        <v>3239657</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5145870</v>
+        <v>3239592</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -7824,13 +7824,13 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>5146432</v>
+        <v>3240259</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>5146450</v>
+        <v>3240187</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -7838,13 +7838,13 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>5147010</v>
+        <v>3240853</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>5147058</v>
+        <v>3240779</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -7852,13 +7852,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>5147612</v>
+        <v>3241457</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>5147677</v>
+        <v>3241368</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -7866,13 +7866,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>5148206</v>
+        <v>3242064</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5148270</v>
+        <v>3241983</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -7880,13 +7880,13 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>5148774</v>
+        <v>3242676</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>5148886</v>
+        <v>3242587</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -7894,13 +7894,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>5149343</v>
+        <v>3243280</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>5149519</v>
+        <v>3243200</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -7908,13 +7908,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>5149921</v>
+        <v>3243869</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>5150129</v>
+        <v>3243804</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -7922,13 +7922,13 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>5150514</v>
+        <v>3244457</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>5150738</v>
+        <v>3244409</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -7936,13 +7936,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>5151091</v>
+        <v>3245047</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>5151339</v>
+        <v>3245023</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -7950,13 +7950,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>5151685</v>
+        <v>3245643</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5151936</v>
+        <v>3245602</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -7964,13 +7964,13 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>5152271</v>
+        <v>3246238</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5152528</v>
+        <v>3246206</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -7978,13 +7978,13 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>5152864</v>
+        <v>3246843</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5153130</v>
+        <v>3246810</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -7992,13 +7992,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>5153426</v>
+        <v>3247462</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5153723</v>
+        <v>3247414</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -8006,13 +8006,13 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>5154035</v>
+        <v>3248082</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>5154332</v>
+        <v>3248026</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -8020,13 +8020,13 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>5154630</v>
+        <v>3248678</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>5154910</v>
+        <v>3248637</v>
       </c>
     </row>
   </sheetData>
@@ -8047,8 +8047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB318573-4D82-4FF9-8610-2597F17DE506}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8090,13 +8090,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5383383</v>
+        <v>3417859</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5383343</v>
+        <v>3418098</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -8104,13 +8104,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5385396</v>
+        <v>3419248</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5385534</v>
+        <v>3419313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -8118,13 +8118,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5387593</v>
+        <v>3420488</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5387649</v>
+        <v>3420578</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -8132,13 +8132,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5388723</v>
+        <v>3421783</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>5389006</v>
+        <v>3421880</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -8146,13 +8146,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5389838</v>
+        <v>3423130</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5390137</v>
+        <v>3423057</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -8160,13 +8160,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5391116</v>
+        <v>3424462</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5391294</v>
+        <v>3424307</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -8174,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>5392300</v>
+        <v>3425535</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>5392696</v>
+        <v>3425737</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -8188,13 +8188,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>5393521</v>
+        <v>3426734</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>5393844</v>
+        <v>3427052</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -8202,13 +8202,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>5394665</v>
+        <v>3428009</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5395373</v>
+        <v>3428504</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -8216,13 +8216,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>5395437</v>
+        <v>3429154</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5396130</v>
+        <v>3429762</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -8230,13 +8230,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>5396536</v>
+        <v>3430372</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>5397022</v>
+        <v>3431005</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -8244,13 +8244,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>5397877</v>
+        <v>3431760</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>5398126</v>
+        <v>3432148</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -8258,13 +8258,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>5399244</v>
+        <v>3433206</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5399503</v>
+        <v>3433387</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -8272,13 +8272,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>5400668</v>
+        <v>3434333</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>5400586</v>
+        <v>3434780</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8286,13 +8286,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>5401902</v>
+        <v>3435485</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5401870</v>
+        <v>3436044</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8300,13 +8300,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5403212</v>
+        <v>3436645</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5403074</v>
+        <v>3437632</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8314,13 +8314,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>5404445</v>
+        <v>3438038</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5404405</v>
+        <v>3439119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8328,13 +8328,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>5405738</v>
+        <v>3439667</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>5405625</v>
+        <v>3440742</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8342,13 +8342,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>5406901</v>
+        <v>3441251</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>5406861</v>
+        <v>3442414</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8356,13 +8356,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>5408236</v>
+        <v>3442841</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>5407955</v>
+        <v>3443454</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -8394,13 +8394,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>5472078</v>
+        <v>3519171</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5472318</v>
+        <v>3523702</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -8408,13 +8408,13 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>5473297</v>
+        <v>3519912</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>5481044</v>
+        <v>3533067</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -8422,13 +8422,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>5474561</v>
+        <v>3520647</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>5486825</v>
+        <v>3533781</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -8436,13 +8436,13 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>5475598</v>
+        <v>3521334</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>5487436</v>
+        <v>3534398</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -8450,13 +8450,13 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>5476263</v>
+        <v>3521883</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5488084</v>
+        <v>3535005</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -8464,13 +8464,13 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>5476889</v>
+        <v>3522350</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>5488697</v>
+        <v>3535632</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -8478,13 +8478,13 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>5477546</v>
+        <v>3522749</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>5489314</v>
+        <v>3536339</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -8492,13 +8492,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>5478244</v>
+        <v>3523207</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>5489948</v>
+        <v>3537091</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -8506,13 +8506,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>5478902</v>
+        <v>3523661</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5490613</v>
+        <v>3537891</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -8520,13 +8520,13 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>5479553</v>
+        <v>3524339</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>5491232</v>
+        <v>3538673</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -8534,13 +8534,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>5480195</v>
+        <v>3525530</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>5491883</v>
+        <v>3539465</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -8548,13 +8548,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>5480828</v>
+        <v>3526806</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>5492484</v>
+        <v>3540193</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -8562,13 +8562,13 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>5481461</v>
+        <v>3527941</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>5493159</v>
+        <v>3540963</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -8576,13 +8576,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>5482136</v>
+        <v>3529238</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>5493938</v>
+        <v>3541742</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -8590,13 +8590,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>5482755</v>
+        <v>3529929</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5494748</v>
+        <v>3542503</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -8604,13 +8604,13 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>5483421</v>
+        <v>3530569</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5495486</v>
+        <v>3543248</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -8618,13 +8618,13 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>5484104</v>
+        <v>3531209</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5496193</v>
+        <v>3543993</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -8632,13 +8632,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>5484706</v>
+        <v>3531858</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5496917</v>
+        <v>3544762</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -8646,13 +8646,13 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>5485339</v>
+        <v>3532541</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>5497579</v>
+        <v>3545515</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -8660,13 +8660,13 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>5485942</v>
+        <v>3533165</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>5498192</v>
+        <v>3546293</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D45"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8729,13 +8729,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5868921</v>
+        <v>3610429</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5868921</v>
+        <v>3610062</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -8743,13 +8743,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5870507</v>
+        <v>3611887</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5870795</v>
+        <v>3611659</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -8757,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5872208</v>
+        <v>3613037</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5872994</v>
+        <v>3613005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -8771,13 +8771,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5873539</v>
+        <v>3614320</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>5874420</v>
+        <v>3614223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -8785,13 +8785,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5874732</v>
+        <v>3615492</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5875608</v>
+        <v>3615484</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -8799,13 +8799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5875985</v>
+        <v>3616852</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5876762</v>
+        <v>3616739</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -8813,13 +8813,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>5877259</v>
+        <v>3618161</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>5877861</v>
+        <v>3618039</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -8827,13 +8827,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>5878568</v>
+        <v>3619495</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>5878984</v>
+        <v>3619301</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -8841,13 +8841,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>5879553</v>
+        <v>3620687</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5880442</v>
+        <v>3620563</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -8855,13 +8855,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>5880594</v>
+        <v>3621957</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5881845</v>
+        <v>3621843</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -8869,13 +8869,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>5881700</v>
+        <v>3623226</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>5882775</v>
+        <v>3622878</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -8883,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>5882687</v>
+        <v>3624477</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>5883656</v>
+        <v>3624129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -8897,13 +8897,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>5883993</v>
+        <v>3625593</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5885025</v>
+        <v>3625398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -8911,13 +8911,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>5885039</v>
+        <v>3626586</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>5885877</v>
+        <v>3626934</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8925,13 +8925,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>5885740</v>
+        <v>3627985</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5886738</v>
+        <v>3627929</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8939,13 +8939,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5886448</v>
+        <v>3629045</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5888060</v>
+        <v>3629320</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8953,13 +8953,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>5887302</v>
+        <v>3630086</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5889423</v>
+        <v>3630511</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8967,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>5888589</v>
+        <v>3631408</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>5891412</v>
+        <v>3631753</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8981,13 +8981,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>5890176</v>
+        <v>3632626</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>5893299</v>
+        <v>3632995</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8995,13 +8995,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>5892045</v>
+        <v>3633773</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>5894487</v>
+        <v>3634005</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -9033,13 +9033,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>6147937</v>
+        <v>3696703</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>6147937</v>
+        <v>3701459</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -9047,13 +9047,13 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>6149248</v>
+        <v>3697898</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>6153728</v>
+        <v>3707522</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -9061,13 +9061,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>6150400</v>
+        <v>3698658</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>6162763</v>
+        <v>3710815</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -9075,13 +9075,13 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>6151571</v>
+        <v>3699327</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>6163390</v>
+        <v>3711855</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -9089,13 +9089,13 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>6152550</v>
+        <v>3700015</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>6164023</v>
+        <v>3713007</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -9103,13 +9103,13 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>6153214</v>
+        <v>3700643</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>6164665</v>
+        <v>3714137</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -9117,13 +9117,13 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>6153864</v>
+        <v>3701282</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>6165281</v>
+        <v>3715227</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -9131,13 +9131,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>6154480</v>
+        <v>3701921</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>6165883</v>
+        <v>3716351</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -9145,13 +9145,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>6155113</v>
+        <v>3702567</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>6166524</v>
+        <v>3717454</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -9159,13 +9159,13 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>6155722</v>
+        <v>3703195</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>6167166</v>
+        <v>3718115</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -9173,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>6156387</v>
+        <v>3703807</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>6167751</v>
+        <v>3718754</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -9187,13 +9187,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>6156964</v>
+        <v>3704579</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>6168367</v>
+        <v>3719359</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -9201,13 +9201,13 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>6157582</v>
+        <v>3705348</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>6168976</v>
+        <v>3719976</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -9215,13 +9215,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>6158175</v>
+        <v>3706269</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>6169640</v>
+        <v>3720592</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -9229,13 +9229,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>6158799</v>
+        <v>3706981</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>6170273</v>
+        <v>3721198</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -9243,13 +9243,13 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>6159504</v>
+        <v>3707705</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>6170977</v>
+        <v>3721820</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -9257,13 +9257,13 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>6160104</v>
+        <v>3708332</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>6171772</v>
+        <v>3722463</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -9271,13 +9271,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>6160769</v>
+        <v>3709011</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>6172517</v>
+        <v>3723073</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -9285,13 +9285,13 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>6161450</v>
+        <v>3709662</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>6173233</v>
+        <v>3723690</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -9299,13 +9299,13 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>6162075</v>
+        <v>3710271</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>6173986</v>
+        <v>3724305</v>
       </c>
     </row>
   </sheetData>
